--- a/excel/lactate concentration predicting.xlsx
+++ b/excel/lactate concentration predicting.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.2</v>
+        <v>0.88</v>
       </c>
       <c r="C2" t="n">
         <v>158.1998081573882</v>
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.58</v>
+        <v>-0.63</v>
       </c>
       <c r="C3" t="n">
         <v>158.4706315586447</v>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.03</v>
+        <v>0.33</v>
       </c>
       <c r="C4" t="n">
         <v>158.1448218004626</v>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6</v>
+        <v>1.06</v>
       </c>
       <c r="C5" t="n">
         <v>149.0522976801654</v>
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.45</v>
+        <v>0.85</v>
       </c>
       <c r="C6" t="n">
         <v>135.9656447485021</v>
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3.53</v>
+        <v>3.13</v>
       </c>
       <c r="C7" t="n">
         <v>131.7745333212383</v>
@@ -567,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5.89</v>
+        <v>5.46</v>
       </c>
       <c r="C8" t="n">
         <v>114.3136380264048</v>
@@ -584,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>8.630000000000001</v>
+        <v>4.47</v>
       </c>
       <c r="C9" t="n">
         <v>138.0339570216455</v>
@@ -601,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>2.84</v>
+        <v>3.89</v>
       </c>
       <c r="C10" t="n">
         <v>120.2899396948261</v>
@@ -618,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>7.76</v>
+        <v>5.49</v>
       </c>
       <c r="C11" t="n">
         <v>119.2596289925686</v>
@@ -635,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>11.89</v>
+        <v>8.74</v>
       </c>
       <c r="C12" t="n">
         <v>99.34041206246579</v>
@@ -652,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="n">
-        <v>9.029999999999999</v>
+        <v>10.24</v>
       </c>
       <c r="C13" t="n">
         <v>80.11482405181125</v>
@@ -669,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>10.68</v>
+        <v>14.59</v>
       </c>
       <c r="C14" t="n">
         <v>57.46941211007771</v>
@@ -686,7 +686,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>20.19</v>
+        <v>18.67</v>
       </c>
       <c r="C15" t="n">
         <v>49.95412443270767</v>
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>24.17</v>
+        <v>16.67</v>
       </c>
       <c r="C16" t="n">
         <v>66.85743039190915</v>
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>29.34</v>
+        <v>26.77</v>
       </c>
       <c r="C17" t="n">
         <v>24.63021481340196</v>
@@ -737,7 +737,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>34.48</v>
+        <v>24.3</v>
       </c>
       <c r="C18" t="n">
         <v>27.67168172421781</v>
@@ -754,7 +754,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>24.73</v>
+        <v>20.11</v>
       </c>
       <c r="C19" t="n">
         <v>48.47710737061647</v>
@@ -764,57 +764,6 @@
       </c>
       <c r="E19" t="n">
         <v>69.28923887321685</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>50</v>
-      </c>
-      <c r="B20" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>30.64425654723019</v>
-      </c>
-      <c r="D20" t="n">
-        <v>21.04477834101002</v>
-      </c>
-      <c r="E20" t="n">
-        <v>66.3416665977557</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>50</v>
-      </c>
-      <c r="B21" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>60.02256826454767</v>
-      </c>
-      <c r="D21" t="n">
-        <v>50.08858814203504</v>
-      </c>
-      <c r="E21" t="n">
-        <v>80.48117699874592</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>50</v>
-      </c>
-      <c r="B22" t="n">
-        <v>37.03</v>
-      </c>
-      <c r="C22" t="n">
-        <v>22.30684105312291</v>
-      </c>
-      <c r="D22" t="n">
-        <v>17.64516366080918</v>
-      </c>
-      <c r="E22" t="n">
-        <v>41.12061079713626</v>
       </c>
     </row>
   </sheetData>
